--- a/data/pca/factorExposure/factorExposure_2016-08-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.008600134228939741</v>
+        <v>0.01329941959880449</v>
       </c>
       <c r="C2">
-        <v>0.05417637811549866</v>
+        <v>0.04364977824147383</v>
       </c>
       <c r="D2">
-        <v>0.03686735499501822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06552543081549157</v>
+      </c>
+      <c r="E2">
+        <v>0.05107297466306323</v>
+      </c>
+      <c r="F2">
+        <v>0.08111557245605205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.06027866942407387</v>
+        <v>0.03078815605711399</v>
       </c>
       <c r="C3">
-        <v>0.09047390758107876</v>
+        <v>0.08112481754909739</v>
       </c>
       <c r="D3">
-        <v>0.08006614657966361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09229904581987997</v>
+      </c>
+      <c r="E3">
+        <v>0.05905889331750313</v>
+      </c>
+      <c r="F3">
+        <v>0.01286212671337938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06252582051750939</v>
+        <v>0.05760278626391856</v>
       </c>
       <c r="C4">
-        <v>0.06032143200220838</v>
+        <v>0.06608856048746672</v>
       </c>
       <c r="D4">
-        <v>0.02415153945395329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05940724799801467</v>
+      </c>
+      <c r="E4">
+        <v>0.04954775010559767</v>
+      </c>
+      <c r="F4">
+        <v>0.08871191456170184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03837705348490899</v>
+        <v>0.03515112404547057</v>
       </c>
       <c r="C6">
-        <v>0.03324260259143121</v>
+        <v>0.03186788701940049</v>
       </c>
       <c r="D6">
-        <v>0.03079051936014127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0687791963194555</v>
+      </c>
+      <c r="E6">
+        <v>0.05743220190003254</v>
+      </c>
+      <c r="F6">
+        <v>0.07130415285418791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01973461443308961</v>
+        <v>0.01927710342609041</v>
       </c>
       <c r="C7">
-        <v>0.04031929322211211</v>
+        <v>0.03801631640784555</v>
       </c>
       <c r="D7">
-        <v>-0.004942744438346152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03747004030763922</v>
+      </c>
+      <c r="E7">
+        <v>0.03114129327331984</v>
+      </c>
+      <c r="F7">
+        <v>0.1082611021460192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001879281680053308</v>
+        <v>0.003521580185169219</v>
       </c>
       <c r="C8">
-        <v>0.02398695794858029</v>
+        <v>0.02816950403942953</v>
       </c>
       <c r="D8">
-        <v>0.03354385931112783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03630398178832711</v>
+      </c>
+      <c r="E8">
+        <v>0.04113453314254935</v>
+      </c>
+      <c r="F8">
+        <v>0.05047029801173542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03336112086351989</v>
+        <v>0.03635013228556439</v>
       </c>
       <c r="C9">
-        <v>0.04455973970971169</v>
+        <v>0.05256274500176391</v>
       </c>
       <c r="D9">
-        <v>0.01325208143958849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04499125335143048</v>
+      </c>
+      <c r="E9">
+        <v>0.0421970031930161</v>
+      </c>
+      <c r="F9">
+        <v>0.09215730564824175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06956016522718945</v>
+        <v>0.09968864850544142</v>
       </c>
       <c r="C10">
-        <v>-0.193670555646344</v>
+        <v>-0.194058402707785</v>
       </c>
       <c r="D10">
-        <v>0.005595804639043925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0004743506836218016</v>
+      </c>
+      <c r="E10">
+        <v>0.04658352345915686</v>
+      </c>
+      <c r="F10">
+        <v>0.04067215401248971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0385513401466821</v>
+        <v>0.03611401416374458</v>
       </c>
       <c r="C11">
-        <v>0.05540653243034131</v>
+        <v>0.05147009848850318</v>
       </c>
       <c r="D11">
-        <v>0.007277644273263483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03416325642310544</v>
+      </c>
+      <c r="E11">
+        <v>0.005174821942717261</v>
+      </c>
+      <c r="F11">
+        <v>0.06653813297968042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03511813757378023</v>
+        <v>0.03682846364646508</v>
       </c>
       <c r="C12">
-        <v>0.04656494310026556</v>
+        <v>0.0475735189868976</v>
       </c>
       <c r="D12">
-        <v>0.001732156719703662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02559045477334159</v>
+      </c>
+      <c r="E12">
+        <v>0.01428753896383473</v>
+      </c>
+      <c r="F12">
+        <v>0.06949742263476569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01341181290986058</v>
+        <v>0.01230423827806025</v>
       </c>
       <c r="C13">
-        <v>0.04260715603766451</v>
+        <v>0.04184459254594909</v>
       </c>
       <c r="D13">
-        <v>0.01790757597482038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06275004184005022</v>
+      </c>
+      <c r="E13">
+        <v>0.06097626293786887</v>
+      </c>
+      <c r="F13">
+        <v>0.1134712692178406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.006580125903620193</v>
+        <v>0.005038981282049793</v>
       </c>
       <c r="C14">
-        <v>0.03408805981088976</v>
+        <v>0.03148514416364529</v>
       </c>
       <c r="D14">
-        <v>-0.01490566877399537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02722492580384042</v>
+      </c>
+      <c r="E14">
+        <v>0.02657233162954499</v>
+      </c>
+      <c r="F14">
+        <v>0.0974702291204491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001131087572830402</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003189064156182897</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004424628928627884</v>
+      </c>
+      <c r="E15">
+        <v>-0.00016458207128876</v>
+      </c>
+      <c r="F15">
+        <v>0.002998643412485574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03515022522981056</v>
+        <v>0.03355469217878683</v>
       </c>
       <c r="C16">
-        <v>0.0428619850244526</v>
+        <v>0.04569254790482569</v>
       </c>
       <c r="D16">
-        <v>0.006736997317316065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0285812293233876</v>
+      </c>
+      <c r="E16">
+        <v>0.01949694365966295</v>
+      </c>
+      <c r="F16">
+        <v>0.07037828411636463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02265788302156601</v>
+        <v>0.01629101433349814</v>
       </c>
       <c r="C19">
-        <v>0.06161977498299371</v>
+        <v>0.05050811910277227</v>
       </c>
       <c r="D19">
-        <v>0.07103067981667212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09643153831880516</v>
+      </c>
+      <c r="E19">
+        <v>0.07954498499985167</v>
+      </c>
+      <c r="F19">
+        <v>0.09159441680958262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01382979471315529</v>
+        <v>0.01332544272604303</v>
       </c>
       <c r="C20">
-        <v>0.04429230804930243</v>
+        <v>0.0409225525235511</v>
       </c>
       <c r="D20">
-        <v>0.01874385283327411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04091503219774312</v>
+      </c>
+      <c r="E20">
+        <v>0.05571741215173716</v>
+      </c>
+      <c r="F20">
+        <v>0.08933984450491909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.009773893623042406</v>
+        <v>0.008508226975499081</v>
       </c>
       <c r="C21">
-        <v>0.04954853068160256</v>
+        <v>0.0447021490012853</v>
       </c>
       <c r="D21">
-        <v>0.0373073708234587</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07030278342244058</v>
+      </c>
+      <c r="E21">
+        <v>0.07301723658313422</v>
+      </c>
+      <c r="F21">
+        <v>0.134379165285603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001795171671882622</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02284282176911207</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03541391413524297</v>
+      </c>
+      <c r="E22">
+        <v>0.01842101852542766</v>
+      </c>
+      <c r="F22">
+        <v>0.02228897982291937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.00186217187571173</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02296687008040688</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03510665131046782</v>
+      </c>
+      <c r="E23">
+        <v>0.01870990397531018</v>
+      </c>
+      <c r="F23">
+        <v>0.02216811023644553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.03053580337283083</v>
+        <v>0.03308637268846856</v>
       </c>
       <c r="C24">
-        <v>0.04885942369491727</v>
+        <v>0.05350061204381343</v>
       </c>
       <c r="D24">
-        <v>0.003864309930390873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02711181044900167</v>
+      </c>
+      <c r="E24">
+        <v>0.01695486497340351</v>
+      </c>
+      <c r="F24">
+        <v>0.07904733454366303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04399859755156304</v>
+        <v>0.0430295803003453</v>
       </c>
       <c r="C25">
-        <v>0.05909416044148398</v>
+        <v>0.05735409364482621</v>
       </c>
       <c r="D25">
-        <v>-0.007238202946013695</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02473627620277236</v>
+      </c>
+      <c r="E25">
+        <v>0.01099946901179876</v>
+      </c>
+      <c r="F25">
+        <v>0.08057610203928728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01264322518507048</v>
+        <v>0.01384967006584914</v>
       </c>
       <c r="C26">
-        <v>0.01615404225300289</v>
+        <v>0.0164648682643114</v>
       </c>
       <c r="D26">
-        <v>0.002084040949345283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02687088946511771</v>
+      </c>
+      <c r="E26">
+        <v>0.02883995376171008</v>
+      </c>
+      <c r="F26">
+        <v>0.07454998210391671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08344502388584481</v>
+        <v>0.1343916511779423</v>
       </c>
       <c r="C28">
-        <v>-0.2279279911498603</v>
+        <v>-0.2437086868277956</v>
       </c>
       <c r="D28">
-        <v>0.000243550673237119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01557603729681827</v>
+      </c>
+      <c r="E28">
+        <v>0.04769180261078024</v>
+      </c>
+      <c r="F28">
+        <v>0.05673004814958595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.008237882726109905</v>
+        <v>0.005974347311533772</v>
       </c>
       <c r="C29">
-        <v>0.02685547294976967</v>
+        <v>0.02709819657625218</v>
       </c>
       <c r="D29">
-        <v>-0.0162285194694878</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02191573940804691</v>
+      </c>
+      <c r="E29">
+        <v>0.02840825363059896</v>
+      </c>
+      <c r="F29">
+        <v>0.08974349462162977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05209278487292749</v>
+        <v>0.04188872583657965</v>
       </c>
       <c r="C30">
-        <v>0.057947416676851</v>
+        <v>0.06472081552078704</v>
       </c>
       <c r="D30">
-        <v>0.05448660778366523</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1083015267349842</v>
+      </c>
+      <c r="E30">
+        <v>0.03976508608867498</v>
+      </c>
+      <c r="F30">
+        <v>0.1046723870354361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04998825968123197</v>
+        <v>0.05481780276007328</v>
       </c>
       <c r="C31">
-        <v>0.03146254533208029</v>
+        <v>0.05395723389300457</v>
       </c>
       <c r="D31">
-        <v>-0.01709242410321574</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.008994720731784825</v>
+      </c>
+      <c r="E31">
+        <v>0.04907005123338081</v>
+      </c>
+      <c r="F31">
+        <v>0.08311790735287093</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008337797849530208</v>
+        <v>0.004605855318792944</v>
       </c>
       <c r="C32">
-        <v>0.04401884701274952</v>
+        <v>0.03348988524120516</v>
       </c>
       <c r="D32">
-        <v>0.02702430243299637</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05048560877177954</v>
+      </c>
+      <c r="E32">
+        <v>0.02275281967772313</v>
+      </c>
+      <c r="F32">
+        <v>0.07412082785013234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02729685351650956</v>
+        <v>0.02425976806321185</v>
       </c>
       <c r="C33">
-        <v>0.05979634554078615</v>
+        <v>0.05476181136753238</v>
       </c>
       <c r="D33">
-        <v>0.03412413631295168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08100377016169923</v>
+      </c>
+      <c r="E33">
+        <v>0.04979320269860917</v>
+      </c>
+      <c r="F33">
+        <v>0.1297791238017423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04468529182437857</v>
+        <v>0.04084832554491571</v>
       </c>
       <c r="C34">
-        <v>0.0610965426536793</v>
+        <v>0.06397307699872062</v>
       </c>
       <c r="D34">
-        <v>-0.003025123971423771</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03434859457442176</v>
+      </c>
+      <c r="E34">
+        <v>-0.00779171066689207</v>
+      </c>
+      <c r="F34">
+        <v>0.07705343498330641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008357604288945934</v>
+        <v>0.01282833829851941</v>
       </c>
       <c r="C36">
-        <v>0.01598477817347309</v>
+        <v>0.01253166296102134</v>
       </c>
       <c r="D36">
-        <v>0.001715309153054342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02809635103068985</v>
+      </c>
+      <c r="E36">
+        <v>0.03424348543273038</v>
+      </c>
+      <c r="F36">
+        <v>0.08217479835901882</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02743625785133021</v>
+        <v>0.02436356537458788</v>
       </c>
       <c r="C38">
-        <v>0.02740598891352702</v>
+        <v>0.02465740873409184</v>
       </c>
       <c r="D38">
-        <v>-0.00252825764379543</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02642468653051314</v>
+      </c>
+      <c r="E38">
+        <v>0.03273053584343696</v>
+      </c>
+      <c r="F38">
+        <v>0.06938790796246955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04159663291233288</v>
+        <v>0.03931007914536974</v>
       </c>
       <c r="C39">
-        <v>0.07119376915034546</v>
+        <v>0.06793954438146908</v>
       </c>
       <c r="D39">
-        <v>0.0203791466492307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05307678672058434</v>
+      </c>
+      <c r="E39">
+        <v>0.01851875399905883</v>
+      </c>
+      <c r="F39">
+        <v>0.09149016795821442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01572259073783431</v>
+        <v>0.01577601521068602</v>
       </c>
       <c r="C40">
-        <v>0.03540959057347356</v>
+        <v>0.03987274623901324</v>
       </c>
       <c r="D40">
-        <v>0.03207226521374109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03925117624162974</v>
+      </c>
+      <c r="E40">
+        <v>0.06915353707514223</v>
+      </c>
+      <c r="F40">
+        <v>0.08808284302163284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.007088378989401158</v>
+        <v>0.01743446566620293</v>
       </c>
       <c r="C41">
-        <v>0.00844165600538585</v>
+        <v>0.006648014485813513</v>
       </c>
       <c r="D41">
-        <v>-0.002328617696348078</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01661030701909023</v>
+      </c>
+      <c r="E41">
+        <v>0.03837559697566462</v>
+      </c>
+      <c r="F41">
+        <v>0.07092586677558813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.0009479822676085832</v>
+        <v>0.0006913355825947612</v>
       </c>
       <c r="C42">
-        <v>0.006332265367773759</v>
+        <v>0.003437404581230736</v>
       </c>
       <c r="D42">
-        <v>0.006182192239730606</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0006301168787048832</v>
+      </c>
+      <c r="E42">
+        <v>0.005738942581391704</v>
+      </c>
+      <c r="F42">
+        <v>-0.006125371072282773</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03129792362058251</v>
+        <v>0.02864391848915202</v>
       </c>
       <c r="C43">
-        <v>0.02424583263716716</v>
+        <v>0.02163922549415773</v>
       </c>
       <c r="D43">
-        <v>0.01088535158934315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04004257991182636</v>
+      </c>
+      <c r="E43">
+        <v>0.0436902927069058</v>
+      </c>
+      <c r="F43">
+        <v>0.08534425657158007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0183773905121432</v>
+        <v>0.0138541713343247</v>
       </c>
       <c r="C44">
-        <v>0.05651817406906039</v>
+        <v>0.05282279541580923</v>
       </c>
       <c r="D44">
-        <v>0.01384816738726584</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04015767426864</v>
+      </c>
+      <c r="E44">
+        <v>0.05570991555770833</v>
+      </c>
+      <c r="F44">
+        <v>0.09010636702202597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.001404817571878276</v>
+        <v>0.007212175430629686</v>
       </c>
       <c r="C46">
-        <v>0.02410224688349485</v>
+        <v>0.0255523205066983</v>
       </c>
       <c r="D46">
-        <v>-0.02077039843297905</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01324473096859486</v>
+      </c>
+      <c r="E46">
+        <v>0.03406220358298183</v>
+      </c>
+      <c r="F46">
+        <v>0.1037713416256834</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.08105412782213277</v>
+        <v>0.08690340060606583</v>
       </c>
       <c r="C47">
-        <v>0.06847986521860031</v>
+        <v>0.07955208600924539</v>
       </c>
       <c r="D47">
-        <v>-0.01422807658442649</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01629149996538792</v>
+      </c>
+      <c r="E47">
+        <v>0.05483867922586749</v>
+      </c>
+      <c r="F47">
+        <v>0.08020519057403305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01679208197165491</v>
+        <v>0.01544360305760966</v>
       </c>
       <c r="C48">
-        <v>0.01294136468897208</v>
+        <v>0.01795393273810729</v>
       </c>
       <c r="D48">
-        <v>-0.008877281952801732</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01833768735808264</v>
+      </c>
+      <c r="E48">
+        <v>0.04512716797171104</v>
+      </c>
+      <c r="F48">
+        <v>0.09648105709075519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08526110959347269</v>
+        <v>0.07126754711332829</v>
       </c>
       <c r="C50">
-        <v>0.06772554173789551</v>
+        <v>0.07088646647490737</v>
       </c>
       <c r="D50">
-        <v>-0.02622291974040841</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.005584179868973506</v>
+      </c>
+      <c r="E50">
+        <v>0.05129587550993833</v>
+      </c>
+      <c r="F50">
+        <v>0.07445200129611483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01437750132456165</v>
+        <v>0.01009476598345758</v>
       </c>
       <c r="C51">
-        <v>0.05153365169593859</v>
+        <v>0.03465030765391368</v>
       </c>
       <c r="D51">
-        <v>0.0115117104933623</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04845708383785919</v>
+      </c>
+      <c r="E51">
+        <v>0.02034402675508857</v>
+      </c>
+      <c r="F51">
+        <v>0.08414526075200204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08328495435401816</v>
+        <v>0.09320048005130874</v>
       </c>
       <c r="C53">
-        <v>0.0685328701235044</v>
+        <v>0.08660628077418811</v>
       </c>
       <c r="D53">
-        <v>-0.03260246848055939</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03836223100888811</v>
+      </c>
+      <c r="E53">
+        <v>0.05221985925737956</v>
+      </c>
+      <c r="F53">
+        <v>0.09066202881502576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03238524498283151</v>
+        <v>0.02790647190472281</v>
       </c>
       <c r="C54">
-        <v>0.02179706415978185</v>
+        <v>0.02690968956875015</v>
       </c>
       <c r="D54">
-        <v>0.0002737816355015044</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03209734934752614</v>
+      </c>
+      <c r="E54">
+        <v>0.04071185331844816</v>
+      </c>
+      <c r="F54">
+        <v>0.09657557296432834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07392671994953828</v>
+        <v>0.08405254516107936</v>
       </c>
       <c r="C55">
-        <v>0.06012582357018652</v>
+        <v>0.07107511166694477</v>
       </c>
       <c r="D55">
-        <v>-0.03537211088923662</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04572215189894466</v>
+      </c>
+      <c r="E55">
+        <v>0.04321085678496827</v>
+      </c>
+      <c r="F55">
+        <v>0.06580489840689557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1507964744496852</v>
+        <v>0.1454767172553972</v>
       </c>
       <c r="C56">
-        <v>0.08819332583686409</v>
+        <v>0.1053286643672938</v>
       </c>
       <c r="D56">
-        <v>-0.04059362038377687</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04871555084599839</v>
+      </c>
+      <c r="E56">
+        <v>0.04718367874025319</v>
+      </c>
+      <c r="F56">
+        <v>0.051119703174044</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.0007707301369939778</v>
+        <v>2.307164076749362e-05</v>
       </c>
       <c r="C57">
-        <v>0.003535071419349399</v>
+        <v>0.001959198135319143</v>
       </c>
       <c r="D57">
-        <v>0.01900311608908774</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01610106866452311</v>
+      </c>
+      <c r="E57">
+        <v>0.007793646998162278</v>
+      </c>
+      <c r="F57">
+        <v>0.01070523492673221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07251428642660172</v>
+        <v>0.02821276659170274</v>
       </c>
       <c r="C58">
-        <v>0.02040043574518152</v>
+        <v>0.04033338397527967</v>
       </c>
       <c r="D58">
-        <v>0.9095957438746244</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4885277378920613</v>
+      </c>
+      <c r="E58">
+        <v>0.6914401239604132</v>
+      </c>
+      <c r="F58">
+        <v>-0.4526823799057293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1331735531814444</v>
+        <v>0.1461911593646622</v>
       </c>
       <c r="C59">
-        <v>-0.204815211729185</v>
+        <v>-0.1868516583670757</v>
       </c>
       <c r="D59">
-        <v>0.01685558852936013</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03162418282928119</v>
+      </c>
+      <c r="E59">
+        <v>0.02567423448942234</v>
+      </c>
+      <c r="F59">
+        <v>0.02209930906919927</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3121296089101671</v>
+        <v>0.2832944591346176</v>
       </c>
       <c r="C60">
-        <v>0.09483569797411152</v>
+        <v>0.09803707855996663</v>
       </c>
       <c r="D60">
-        <v>0.02929118039947845</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2029479080230913</v>
+      </c>
+      <c r="E60">
+        <v>-0.2723535233084726</v>
+      </c>
+      <c r="F60">
+        <v>-0.1159765421559193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.04069903649484074</v>
+        <v>0.04035281825030861</v>
       </c>
       <c r="C61">
-        <v>0.06403752101496868</v>
+        <v>0.06206743858437291</v>
       </c>
       <c r="D61">
-        <v>0.01096046866346975</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04625899571913693</v>
+      </c>
+      <c r="E61">
+        <v>0.02183633532993193</v>
+      </c>
+      <c r="F61">
+        <v>0.08230756860220098</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01516968532078005</v>
+        <v>0.01512139097626715</v>
       </c>
       <c r="C63">
-        <v>0.03535011383254682</v>
+        <v>0.03246893420296367</v>
       </c>
       <c r="D63">
-        <v>-0.003083300084579093</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0237819135228256</v>
+      </c>
+      <c r="E63">
+        <v>0.03726739261920725</v>
+      </c>
+      <c r="F63">
+        <v>0.07771691040499702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05298868667429639</v>
+        <v>0.05548353777559428</v>
       </c>
       <c r="C64">
-        <v>0.03738913411638356</v>
+        <v>0.05389690859258701</v>
       </c>
       <c r="D64">
-        <v>-0.01089477993763674</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006578953520953404</v>
+      </c>
+      <c r="E64">
+        <v>0.01981535508494975</v>
+      </c>
+      <c r="F64">
+        <v>0.0856750547908178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09838739161827292</v>
+        <v>0.06912352486964243</v>
       </c>
       <c r="C65">
-        <v>0.02800025060166107</v>
+        <v>0.03353074242814268</v>
       </c>
       <c r="D65">
-        <v>0.03894617771165223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08758441551337952</v>
+      </c>
+      <c r="E65">
+        <v>0.03037581832109067</v>
+      </c>
+      <c r="F65">
+        <v>0.01922664434466156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06277277566562012</v>
+        <v>0.0516036949954921</v>
       </c>
       <c r="C66">
-        <v>0.1019839593857683</v>
+        <v>0.0906822184737847</v>
       </c>
       <c r="D66">
-        <v>0.03247323490807376</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0804242999916072</v>
+      </c>
+      <c r="E66">
+        <v>0.020957658345224</v>
+      </c>
+      <c r="F66">
+        <v>0.09382777090422355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.04954690764419526</v>
+        <v>0.04633797889996506</v>
       </c>
       <c r="C67">
-        <v>0.03282407807211764</v>
+        <v>0.03066632263244503</v>
       </c>
       <c r="D67">
-        <v>-0.008434076963755909</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01209146927360076</v>
+      </c>
+      <c r="E67">
+        <v>0.0157509379821947</v>
+      </c>
+      <c r="F67">
+        <v>0.05433353530972141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1119283956130914</v>
+        <v>0.1512249209467011</v>
       </c>
       <c r="C68">
-        <v>-0.2907586396154833</v>
+        <v>-0.2522605814994237</v>
       </c>
       <c r="D68">
-        <v>-0.002075128455141779</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01763339780169901</v>
+      </c>
+      <c r="E68">
+        <v>0.04227247812207405</v>
+      </c>
+      <c r="F68">
+        <v>0.01898984919754968</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08478154474001479</v>
+        <v>0.08650385386203441</v>
       </c>
       <c r="C69">
-        <v>0.06679776810218692</v>
+        <v>0.08644298194174031</v>
       </c>
       <c r="D69">
-        <v>-0.03958326347265125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01185225633324673</v>
+      </c>
+      <c r="E69">
+        <v>0.03115486569918893</v>
+      </c>
+      <c r="F69">
+        <v>0.09657352298773401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1135411037645887</v>
+        <v>0.1433007318551843</v>
       </c>
       <c r="C71">
-        <v>-0.2520806829169753</v>
+        <v>-0.2333999775048216</v>
       </c>
       <c r="D71">
-        <v>0.02479145821020249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0159616156137347</v>
+      </c>
+      <c r="E71">
+        <v>0.06205111961989836</v>
+      </c>
+      <c r="F71">
+        <v>0.05789045289950185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08578574314959242</v>
+        <v>0.09590833516101463</v>
       </c>
       <c r="C72">
-        <v>0.04926255515685907</v>
+        <v>0.0572095424810992</v>
       </c>
       <c r="D72">
-        <v>-0.008465679464459672</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02077585302089285</v>
+      </c>
+      <c r="E72">
+        <v>0.008526959619225182</v>
+      </c>
+      <c r="F72">
+        <v>0.0812486809763982</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4474856286037724</v>
+        <v>0.3476277171606324</v>
       </c>
       <c r="C73">
-        <v>0.06628322713392133</v>
+        <v>0.07705234656168575</v>
       </c>
       <c r="D73">
-        <v>0.134671309170483</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4324898443388275</v>
+      </c>
+      <c r="E73">
+        <v>-0.4835810394783002</v>
+      </c>
+      <c r="F73">
+        <v>-0.2926279428600123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1130688101510691</v>
+        <v>0.1107584181094184</v>
       </c>
       <c r="C74">
-        <v>0.1043813055527096</v>
+        <v>0.100036712365531</v>
       </c>
       <c r="D74">
-        <v>-0.01447500802291783</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0290517191394711</v>
+      </c>
+      <c r="E74">
+        <v>0.06124418067674367</v>
+      </c>
+      <c r="F74">
+        <v>0.05693990048773628</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.251735534709492</v>
+        <v>0.2565491049434434</v>
       </c>
       <c r="C75">
-        <v>0.1079019056185817</v>
+        <v>0.136022345438797</v>
       </c>
       <c r="D75">
-        <v>-0.06292242752915649</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1279587470185263</v>
+      </c>
+      <c r="E75">
+        <v>0.07398540298917512</v>
+      </c>
+      <c r="F75">
+        <v>0.01674243633497535</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1132962237289091</v>
+        <v>0.1280962411661024</v>
       </c>
       <c r="C76">
-        <v>0.08717710158858502</v>
+        <v>0.1021737937806214</v>
       </c>
       <c r="D76">
-        <v>-0.03325179114453338</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05761714631505583</v>
+      </c>
+      <c r="E76">
+        <v>0.06631710445632649</v>
+      </c>
+      <c r="F76">
+        <v>0.07155242488854217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07746678885992726</v>
+        <v>0.0620521879094967</v>
       </c>
       <c r="C77">
-        <v>0.0565500439312604</v>
+        <v>0.06906564258294709</v>
       </c>
       <c r="D77">
-        <v>0.05236134231313917</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0651491755352309</v>
+      </c>
+      <c r="E77">
+        <v>0.06718436620752267</v>
+      </c>
+      <c r="F77">
+        <v>0.1174911682096096</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04619176986360179</v>
+        <v>0.04384978528612855</v>
       </c>
       <c r="C78">
-        <v>0.04357479447438638</v>
+        <v>0.05517894866927781</v>
       </c>
       <c r="D78">
-        <v>0.01756134787781155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07186789617908801</v>
+      </c>
+      <c r="E78">
+        <v>0.02115403458608346</v>
+      </c>
+      <c r="F78">
+        <v>0.1039435991571758</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02504100685832917</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0378655302392289</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05942044940218805</v>
+      </c>
+      <c r="E79">
+        <v>0.05270292133586246</v>
+      </c>
+      <c r="F79">
+        <v>0.04319972786877946</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04721800662386839</v>
+        <v>0.03453092580290728</v>
       </c>
       <c r="C80">
-        <v>0.05664145653917081</v>
+        <v>0.05526470152209925</v>
       </c>
       <c r="D80">
-        <v>0.02986594063230666</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04697724998452424</v>
+      </c>
+      <c r="E80">
+        <v>0.009628840441621454</v>
+      </c>
+      <c r="F80">
+        <v>0.03648780848045924</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1425443908669895</v>
+        <v>0.1401792891880843</v>
       </c>
       <c r="C81">
-        <v>0.06817060003309358</v>
+        <v>0.09651699729969772</v>
       </c>
       <c r="D81">
-        <v>-0.03558613484625501</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09545834120821473</v>
+      </c>
+      <c r="E81">
+        <v>0.0817109991961225</v>
+      </c>
+      <c r="F81">
+        <v>0.02158628352242533</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1401017425907284</v>
+        <v>0.1991506703346942</v>
       </c>
       <c r="C82">
-        <v>0.05136030617603519</v>
+        <v>0.1369847974330833</v>
       </c>
       <c r="D82">
-        <v>-0.1236220424139561</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2266301136482112</v>
+      </c>
+      <c r="E82">
+        <v>0.02019814960037496</v>
+      </c>
+      <c r="F82">
+        <v>0.08549143412209979</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02930957056885559</v>
+        <v>0.02746069404612304</v>
       </c>
       <c r="C83">
-        <v>0.02225803386300223</v>
+        <v>0.04029908343144318</v>
       </c>
       <c r="D83">
-        <v>0.023207021546679</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03522935206202289</v>
+      </c>
+      <c r="E83">
+        <v>0.008825413353021122</v>
+      </c>
+      <c r="F83">
+        <v>0.04975229864630721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2260051900168658</v>
+        <v>0.2044741555179427</v>
       </c>
       <c r="C85">
-        <v>0.1012183099273596</v>
+        <v>0.1212714486201496</v>
       </c>
       <c r="D85">
-        <v>-0.1006894283190007</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.102920699902357</v>
+      </c>
+      <c r="E85">
+        <v>0.004864531507917923</v>
+      </c>
+      <c r="F85">
+        <v>-0.0166888135137131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.009200404043415909</v>
+        <v>0.0121815554628569</v>
       </c>
       <c r="C86">
-        <v>0.02998886552236988</v>
+        <v>0.02980351027363821</v>
       </c>
       <c r="D86">
-        <v>0.03487371110894925</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07111370113595783</v>
+      </c>
+      <c r="E86">
+        <v>0.04189624277526105</v>
+      </c>
+      <c r="F86">
+        <v>0.1369950665269739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0180049146453882</v>
+        <v>0.02114012751858544</v>
       </c>
       <c r="C87">
-        <v>0.01748538801824408</v>
+        <v>0.02157851460493795</v>
       </c>
       <c r="D87">
-        <v>0.09169367566694701</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09311685685587918</v>
+      </c>
+      <c r="E87">
+        <v>0.0868690544712562</v>
+      </c>
+      <c r="F87">
+        <v>0.09466712646343166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1051800554204168</v>
+        <v>0.09091505559717386</v>
       </c>
       <c r="C88">
-        <v>0.06684855166695414</v>
+        <v>0.06336902672938188</v>
       </c>
       <c r="D88">
-        <v>-0.02239234547716619</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01138356578266294</v>
+      </c>
+      <c r="E88">
+        <v>0.03469676023202444</v>
+      </c>
+      <c r="F88">
+        <v>0.07302929277817816</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1695703047079407</v>
+        <v>0.2231492967487605</v>
       </c>
       <c r="C89">
-        <v>-0.380843163108636</v>
+        <v>-0.379923593407689</v>
       </c>
       <c r="D89">
-        <v>-0.02505066443977973</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01398781144863237</v>
+      </c>
+      <c r="E89">
+        <v>0.03808567580293238</v>
+      </c>
+      <c r="F89">
+        <v>0.09574208291096377</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1682140051177157</v>
+        <v>0.2019681826837721</v>
       </c>
       <c r="C90">
-        <v>-0.3508395601432863</v>
+        <v>-0.3155556751460142</v>
       </c>
       <c r="D90">
-        <v>-0.01308981290098815</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01270485020750409</v>
+      </c>
+      <c r="E90">
+        <v>0.06745566846459185</v>
+      </c>
+      <c r="F90">
+        <v>0.04683953380804563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1931412810913015</v>
+        <v>0.186579092207359</v>
       </c>
       <c r="C91">
-        <v>0.1073429123120339</v>
+        <v>0.1396850209815342</v>
       </c>
       <c r="D91">
-        <v>-0.06174514411949664</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1052698091942777</v>
+      </c>
+      <c r="E91">
+        <v>0.06473149836291324</v>
+      </c>
+      <c r="F91">
+        <v>0.03732860933095999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.164351408531185</v>
+        <v>0.1816920929249437</v>
       </c>
       <c r="C92">
-        <v>-0.2959562863664429</v>
+        <v>-0.2810645313094985</v>
       </c>
       <c r="D92">
-        <v>-0.01430089596358438</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.001712594356189791</v>
+      </c>
+      <c r="E92">
+        <v>0.0681586046848639</v>
+      </c>
+      <c r="F92">
+        <v>0.08173151581097422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1941159530445964</v>
+        <v>0.2256778038595169</v>
       </c>
       <c r="C93">
-        <v>-0.3408424600739776</v>
+        <v>-0.318855170325953</v>
       </c>
       <c r="D93">
-        <v>-0.008999452785110705</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0006733408386980483</v>
+      </c>
+      <c r="E93">
+        <v>0.05107727878560427</v>
+      </c>
+      <c r="F93">
+        <v>0.04408607316833865</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3166446009305987</v>
+        <v>0.3421193804451072</v>
       </c>
       <c r="C94">
-        <v>0.1517744745649065</v>
+        <v>0.1877034522311587</v>
       </c>
       <c r="D94">
-        <v>-0.2350050701356863</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4748416806545553</v>
+      </c>
+      <c r="E94">
+        <v>0.1517666287808977</v>
+      </c>
+      <c r="F94">
+        <v>-0.4454114577706562</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09570038912524449</v>
+        <v>0.08480681636926587</v>
       </c>
       <c r="C95">
-        <v>0.08330064251757642</v>
+        <v>0.06772763928894603</v>
       </c>
       <c r="D95">
-        <v>0.06654485080256914</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1578580841932715</v>
+      </c>
+      <c r="E95">
+        <v>-0.1246100064998718</v>
+      </c>
+      <c r="F95">
+        <v>0.1687525991540751</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1969389564737616</v>
+        <v>0.188607926876564</v>
       </c>
       <c r="C98">
-        <v>0.0175792250864768</v>
+        <v>0.04101124588279145</v>
       </c>
       <c r="D98">
-        <v>0.06511039131850803</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1763408887611097</v>
+      </c>
+      <c r="E98">
+        <v>-0.1569062660005184</v>
+      </c>
+      <c r="F98">
+        <v>-0.04400586044809909</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.00814310323448687</v>
+        <v>0.006023111893751795</v>
       </c>
       <c r="C101">
-        <v>0.02685163930026448</v>
+        <v>0.02684524844757312</v>
       </c>
       <c r="D101">
-        <v>-0.01643934600380074</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02143663702407702</v>
+      </c>
+      <c r="E101">
+        <v>0.02912403909639212</v>
+      </c>
+      <c r="F101">
+        <v>0.0895534834251618</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1240380555249156</v>
+        <v>0.1242773144146247</v>
       </c>
       <c r="C102">
-        <v>0.07061739921494137</v>
+        <v>0.09998359988279382</v>
       </c>
       <c r="D102">
-        <v>-0.03641128564212096</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05023029915173964</v>
+      </c>
+      <c r="E102">
+        <v>-0.007862716876775784</v>
+      </c>
+      <c r="F102">
+        <v>0.04006184526582932</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
